--- a/How_to_start_a_new_GitHub_project.xlsx
+++ b/How_to_start_a_new_GitHub_project.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>How to Begin a GitHub project</t>
   </si>
@@ -125,6 +125,15 @@
       </rPr>
       <t>"</t>
     </r>
+  </si>
+  <si>
+    <t>Make Changes</t>
+  </si>
+  <si>
+    <t>Add/Commit changes as necessary</t>
+  </si>
+  <si>
+    <t>Push changes back to GitHub (should be doable w/ simple 'git push')</t>
   </si>
 </sst>
 </file>
@@ -490,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -532,6 +541,30 @@
         <v>4</v>
       </c>
     </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/How_to_start_a_new_GitHub_project.xlsx
+++ b/How_to_start_a_new_GitHub_project.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="37660" yWindow="2060" windowWidth="28040" windowHeight="17040"/>
+    <workbookView xWindow="33440" yWindow="460" windowWidth="28040" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>How to Begin a GitHub project</t>
-  </si>
-  <si>
-    <t>Log into GitHub and create a Repo w/ a ReadMe file</t>
   </si>
   <si>
     <r>
@@ -134,6 +131,12 @@
   </si>
   <si>
     <t>Push changes back to GitHub (should be doable w/ simple 'git push')</t>
+  </si>
+  <si>
+    <t>Log into GitHub from a browser and create a Repo w/ a ReadMe file</t>
+  </si>
+  <si>
+    <t>Create a Repo w/ a ReadMe file</t>
   </si>
 </sst>
 </file>
@@ -499,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -517,7 +520,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -525,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -536,17 +539,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="C7" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8">
         <v>4</v>
       </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
+      <c r="C9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -554,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -562,7 +565,15 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
         <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
